--- a/excel_stats/statistics_second_metric_prompt.xlsx
+++ b/excel_stats/statistics_second_metric_prompt.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,9 +26,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,19 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -72,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,13 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -451,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Enhanced Text</t>
+          <t>Simplified Text</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,7 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Readability Enhanced</t>
+          <t>Readability Simplified</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Words Original</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Words Simplified</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences Original</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Sentences Simplified</t>
         </is>
       </c>
     </row>
@@ -509,6 +519,18 @@
       <c r="D2" t="n">
         <v>8.60565951096315</v>
       </c>
+      <c r="E2" t="n">
+        <v>649</v>
+      </c>
+      <c r="F2" t="n">
+        <v>281</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -533,6 +555,18 @@
       </c>
       <c r="D3" t="n">
         <v>9.09975378787879</v>
+      </c>
+      <c r="E3" t="n">
+        <v>827</v>
+      </c>
+      <c r="F3" t="n">
+        <v>165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -558,6 +592,18 @@
       </c>
       <c r="D4" t="n">
         <v>11.32945054945055</v>
+      </c>
+      <c r="E4" t="n">
+        <v>835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>182</v>
+      </c>
+      <c r="G4" t="n">
+        <v>38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -591,6 +637,18 @@
       <c r="D5" t="n">
         <v>13.9498275862069</v>
       </c>
+      <c r="E5" t="n">
+        <v>791</v>
+      </c>
+      <c r="F5" t="n">
+        <v>290</v>
+      </c>
+      <c r="G5" t="n">
+        <v>42</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -615,6 +673,18 @@
       <c r="D6" t="n">
         <v>13.71363636363636</v>
       </c>
+      <c r="E6" t="n">
+        <v>554</v>
+      </c>
+      <c r="F6" t="n">
+        <v>176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -635,6 +705,18 @@
       </c>
       <c r="D7" t="n">
         <v>8.636267605633801</v>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -661,6 +743,18 @@
       <c r="D8" t="n">
         <v>14.03928571428571</v>
       </c>
+      <c r="E8" t="n">
+        <v>475</v>
+      </c>
+      <c r="F8" t="n">
+        <v>224</v>
+      </c>
+      <c r="G8" t="n">
+        <v>26</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -679,6 +773,18 @@
       </c>
       <c r="D9" t="n">
         <v>15.23801242236025</v>
+      </c>
+      <c r="E9" t="n">
+        <v>191</v>
+      </c>
+      <c r="F9" t="n">
+        <v>115</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -709,6 +815,18 @@
       <c r="D10" t="n">
         <v>14.04890052356021</v>
       </c>
+      <c r="E10" t="n">
+        <v>628</v>
+      </c>
+      <c r="F10" t="n">
+        <v>191</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -728,6 +846,18 @@
       <c r="D11" t="n">
         <v>10.50907110091743</v>
       </c>
+      <c r="E11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F11" t="n">
+        <v>109</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -746,6 +876,18 @@
       </c>
       <c r="D12" t="n">
         <v>14.38829402515723</v>
+      </c>
+      <c r="E12" t="n">
+        <v>780</v>
+      </c>
+      <c r="F12" t="n">
+        <v>318</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -772,6 +914,18 @@
       <c r="D13" t="n">
         <v>14.18546268656716</v>
       </c>
+      <c r="E13" t="n">
+        <v>552</v>
+      </c>
+      <c r="F13" t="n">
+        <v>268</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -795,6 +949,18 @@
       <c r="D14" t="n">
         <v>13.3402331002331</v>
       </c>
+      <c r="E14" t="n">
+        <v>514</v>
+      </c>
+      <c r="F14" t="n">
+        <v>286</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -814,6 +980,18 @@
       <c r="D15" t="n">
         <v>11.0401966873706</v>
       </c>
+      <c r="E15" t="n">
+        <v>254</v>
+      </c>
+      <c r="F15" t="n">
+        <v>207</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -832,6 +1010,18 @@
       </c>
       <c r="D16" t="n">
         <v>11.31331034482759</v>
+      </c>
+      <c r="E16" t="n">
+        <v>87</v>
+      </c>
+      <c r="F16" t="n">
+        <v>58</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -855,6 +1045,18 @@
       </c>
       <c r="D17" t="n">
         <v>9.868165680473375</v>
+      </c>
+      <c r="E17" t="n">
+        <v>626</v>
+      </c>
+      <c r="F17" t="n">
+        <v>169</v>
+      </c>
+      <c r="G17" t="n">
+        <v>42</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -887,6 +1089,18 @@
       <c r="D18" t="n">
         <v>11.21635581061693</v>
       </c>
+      <c r="E18" t="n">
+        <v>849</v>
+      </c>
+      <c r="F18" t="n">
+        <v>205</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -913,6 +1127,18 @@
       <c r="D19" t="n">
         <v>9.653964686998396</v>
       </c>
+      <c r="E19" t="n">
+        <v>503</v>
+      </c>
+      <c r="F19" t="n">
+        <v>178</v>
+      </c>
+      <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -933,6 +1159,18 @@
       </c>
       <c r="D20" t="n">
         <v>12.63476277372263</v>
+      </c>
+      <c r="E20" t="n">
+        <v>292</v>
+      </c>
+      <c r="F20" t="n">
+        <v>137</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -957,6 +1195,18 @@
       </c>
       <c r="D21" t="n">
         <v>14.63579759862779</v>
+      </c>
+      <c r="E21" t="n">
+        <v>297</v>
+      </c>
+      <c r="F21" t="n">
+        <v>212</v>
+      </c>
+      <c r="G21" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -980,6 +1230,18 @@
       </c>
       <c r="D22" t="n">
         <v>10.25713294797688</v>
+      </c>
+      <c r="E22" t="n">
+        <v>507</v>
+      </c>
+      <c r="F22" t="n">
+        <v>173</v>
+      </c>
+      <c r="G22" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1033,6 +1295,18 @@
       <c r="D23" t="n">
         <v>12.9956329113924</v>
       </c>
+      <c r="E23" t="n">
+        <v>549</v>
+      </c>
+      <c r="F23" t="n">
+        <v>158</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1055,6 +1329,18 @@
       </c>
       <c r="D24" t="n">
         <v>11.06286142322098</v>
+      </c>
+      <c r="E24" t="n">
+        <v>580</v>
+      </c>
+      <c r="F24" t="n">
+        <v>267</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1081,6 +1367,18 @@
       <c r="D25" t="n">
         <v>14.48514018691589</v>
       </c>
+      <c r="E25" t="n">
+        <v>507</v>
+      </c>
+      <c r="F25" t="n">
+        <v>214</v>
+      </c>
+      <c r="G25" t="n">
+        <v>22</v>
+      </c>
+      <c r="H25" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1099,6 +1397,18 @@
       </c>
       <c r="D26" t="n">
         <v>10.45515151515152</v>
+      </c>
+      <c r="E26" t="n">
+        <v>828</v>
+      </c>
+      <c r="F26" t="n">
+        <v>132</v>
+      </c>
+      <c r="G26" t="n">
+        <v>49</v>
+      </c>
+      <c r="H26" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1129,6 +1439,18 @@
       <c r="D27" t="n">
         <v>13.46781193490055</v>
       </c>
+      <c r="E27" t="n">
+        <v>791</v>
+      </c>
+      <c r="F27" t="n">
+        <v>316</v>
+      </c>
+      <c r="G27" t="n">
+        <v>39</v>
+      </c>
+      <c r="H27" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1151,6 +1473,18 @@
       <c r="D28" t="n">
         <v>11.51084057971015</v>
       </c>
+      <c r="E28" t="n">
+        <v>265</v>
+      </c>
+      <c r="F28" t="n">
+        <v>69</v>
+      </c>
+      <c r="G28" t="n">
+        <v>17</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1172,6 +1506,18 @@
       <c r="D29" t="n">
         <v>12.15283882783883</v>
       </c>
+      <c r="E29" t="n">
+        <v>455</v>
+      </c>
+      <c r="F29" t="n">
+        <v>273</v>
+      </c>
+      <c r="G29" t="n">
+        <v>23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1192,6 +1538,18 @@
       <c r="D30" t="n">
         <v>14.84244444444445</v>
       </c>
+      <c r="E30" t="n">
+        <v>402</v>
+      </c>
+      <c r="F30" t="n">
+        <v>288</v>
+      </c>
+      <c r="G30" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1210,6 +1568,18 @@
       </c>
       <c r="D31" t="n">
         <v>10.76053082191781</v>
+      </c>
+      <c r="E31" t="n">
+        <v>95</v>
+      </c>
+      <c r="F31" t="n">
+        <v>73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1246,6 +1616,18 @@
       <c r="D32" t="n">
         <v>15.64048245614035</v>
       </c>
+      <c r="E32" t="n">
+        <v>854</v>
+      </c>
+      <c r="F32" t="n">
+        <v>240</v>
+      </c>
+      <c r="G32" t="n">
+        <v>41</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1264,6 +1646,18 @@
       </c>
       <c r="D33" t="n">
         <v>13.17828877005348</v>
+      </c>
+      <c r="E33" t="n">
+        <v>283</v>
+      </c>
+      <c r="F33" t="n">
+        <v>187</v>
+      </c>
+      <c r="G33" t="n">
+        <v>18</v>
+      </c>
+      <c r="H33" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -1286,25 +1680,47 @@
       <c r="D34" t="n">
         <v>12.09739358906989</v>
       </c>
+      <c r="E34" t="n">
+        <v>467</v>
+      </c>
+      <c r="F34" t="n">
+        <v>173</v>
+      </c>
+      <c r="G34" t="n">
+        <v>25</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Corrected text:
-The majority of data produced in the current digital era takes the form of natural ubiquitous signals: audio signals, various biometric data, image features, economic data, etc. These are often viewed as time series and need to be organized and searched in a way that is key to research issues drawing a lot of attention in the last two decades. An important problem in this context is the subsequence matching problem. It is basically formulated as follows: given a query sequence, find the best matching subsequences in a database. Depending on the specific data application, this general problem has many variants, with query sequences of fixed or variable sizes and data-specific definitions for sequence matching requirements such as dynamic time warping, etc. Therefore, the research effort in this area has resulted in many approaches and techniques. The general focus is on specific fragments of a complex problem, leading authors in the field to identify two main problems that limit comparability and collaboration among the potential various approaches: data bias and algorithms often evaluated on heterogeneous datasets that influence experimental results. Efforts to overcome data bias have led to the establishment of common sets of data collections and consequent research in the area. However, the bias in implementation persists, obstructing the straightforward combination of compatible approaches whose interconnection could facilitate efficient analysis. This situation has led us to the conclusion that a unified environment for developing, prototyping, testing, and combining subsequence matching approaches is needed. In this paper, we propose a generic subsequence matching framework (SMF). Namely, techniques for subsequence matching identify several common subproblems that approaches deal with in various ways (section X); we target to describe the implementation of the framework (section Y). The power of SMF is demonstrated in the elegant realization of several variants of fundamental subsequence matching algorithms; subsequence matching can be simply implemented with the aid of the framework (section Z). The paper concludes in section Z with future directions covering possible performance boosts enabled by the straightforward cooperation of the framework with advanced distance-based indexing and searching technologies.</t>
+          <t>The majority of data produced in the current digital era takes the form of natural ubiquitous signals: audio signals, various biometric data, image features, economic data, etc. These are often viewed as time series and need to be organized and searched in a way that is key to research issues drawing a lot of attention in the last two decades. An important problem in this context is the subsequence matching problem. It is basically formulated as follows: given a query sequence, find the best matching subsequences in a database. Depending on the specific data application, this general problem has many variants, with query sequences of fixed or variable sizes and data-specific definitions for sequence matching requirements such as dynamic time warping, etc. Therefore, the research effort in this area has resulted in many approaches and techniques. The general focus is on specific fragments of a complex problem, leading authors in the field to identify two main problems that limit comparability and collaboration among the potential various approaches: data bias and algorithms often evaluated on heterogeneous datasets that influence experimental results. Efforts to overcome data bias have led to the establishment of common sets of data collections and consequent research in the area. However, the bias in implementation persists, obstructing the straightforward combination of compatible approaches whose interconnection could facilitate efficient analysis. This situation has led us to the conclusion that a unified environment for developing, prototyping, testing, and combining subsequence matching approaches is needed. In this paper, we propose a generic subsequence matching framework (SMF). Namely, techniques for subsequence matching identify several common subproblems that approaches deal with in various ways (section X); we target to describe the implementation of the framework (section Y). The power of SMF is demonstrated in the elegant realization of several variants of fundamental subsequence matching algorithms; subsequence matching can be simply implemented with the aid of the framework (section Z). The paper concludes in section Z with future directions covering possible performance boosts enabled by the straightforward cooperation of the framework with advanced distance-based indexing and searching technologies.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Simplified text:
-Most data in the digital age comes in forms like audio signals, biometric data, images, and economic data. It's important to organize and search this data effectively for research. One key issue is finding matching sequences within databases. Different data applications have their own matching requirements like dynamic time warping. Researchers have developed many methods to address this. However, challenges like data bias and evaluating algorithms on different datasets make it hard to compare approaches. To tackle this, a unified framework called Subsequence Matching Framework (SMF) is proposed. This framework helps in developing and testing various subsequence matching algorithms efficiently. The paper discusses how SMF can enhance performance by working with advanced searching technologies.</t>
+          <t>Most data in the digital age comes in forms like audio signals, biometric data, images, and economic data. It's important to organize and search this data effectively for research. One key issue is finding matching sequences within databases. Different data applications have their own matching requirements like dynamic time warping. Researchers have developed many methods to address this. However, challenges like data bias and evaluating algorithms on different datasets make it hard to compare approaches. To tackle this, a unified framework called Subsequence Matching Framework (SMF) is proposed. This framework helps in developing and testing various subsequence matching algorithms efficiently. The paper discusses how SMF can enhance performance by working with advanced searching technologies.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>16.59675144508671</v>
+        <v>16.54237209302326</v>
       </c>
       <c r="D35" t="n">
-        <v>11.51675862068966</v>
+        <v>11.42091228070176</v>
+      </c>
+      <c r="E35" t="n">
+        <v>344</v>
+      </c>
+      <c r="F35" t="n">
+        <v>114</v>
+      </c>
+      <c r="G35" t="n">
+        <v>15</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -1324,6 +1740,18 @@
       </c>
       <c r="D36" t="n">
         <v>11.33311347517731</v>
+      </c>
+      <c r="E36" t="n">
+        <v>295</v>
+      </c>
+      <c r="F36" t="n">
+        <v>141</v>
+      </c>
+      <c r="G36" t="n">
+        <v>15</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -1352,6 +1780,18 @@
       <c r="D37" t="n">
         <v>14.22312138728324</v>
       </c>
+      <c r="E37" t="n">
+        <v>742</v>
+      </c>
+      <c r="F37" t="n">
+        <v>173</v>
+      </c>
+      <c r="G37" t="n">
+        <v>37</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1378,6 +1818,18 @@
       <c r="D38" t="n">
         <v>12.95208333333333</v>
       </c>
+      <c r="E38" t="n">
+        <v>569</v>
+      </c>
+      <c r="F38" t="n">
+        <v>320</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27</v>
+      </c>
+      <c r="H38" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1396,6 +1848,18 @@
       </c>
       <c r="D39" t="n">
         <v>10.08767289719627</v>
+      </c>
+      <c r="E39" t="n">
+        <v>479</v>
+      </c>
+      <c r="F39" t="n">
+        <v>107</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1422,6 +1886,18 @@
       <c r="D40" t="n">
         <v>11.66901792114696</v>
       </c>
+      <c r="E40" t="n">
+        <v>515</v>
+      </c>
+      <c r="F40" t="n">
+        <v>279</v>
+      </c>
+      <c r="G40" t="n">
+        <v>24</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1440,6 +1916,18 @@
       </c>
       <c r="D41" t="n">
         <v>10.39019607843137</v>
+      </c>
+      <c r="E41" t="n">
+        <v>736</v>
+      </c>
+      <c r="F41" t="n">
+        <v>119</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -1457,7 +1945,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Subject: Secure Multiparty Computation (SMC)
+          <t>Secure Multiparty Computation (SMC)
 Secure Multiparty Computation (SMC) involves designing protocols for a group of untrusting parties to compute functions with private inputs securely. This is a complex field that considers different security models and communication methods like shared randomness. 
 In this research, we focus on three parties communicating securely through authenticated channels to compute a function. We analyze security in a scenario where one party may deviate from the computation protocol. Security is stronger with fewer compromised parties, with at least four parties needed for nontrivial security guarantees. 
 Determining which functions can be securely computed when one party deviates is a current challenge. Security considerations involve ensuring correctness and privacy despite potential deviations. The goal is to achieve security comparable to a trusted genie facilitating the computation. 
@@ -1469,7 +1957,19 @@
         <v>17.16281307977737</v>
       </c>
       <c r="D42" t="n">
-        <v>15.57049399198932</v>
+        <v>15.55014419852448</v>
+      </c>
+      <c r="E42" t="n">
+        <v>539</v>
+      </c>
+      <c r="F42" t="n">
+        <v>213</v>
+      </c>
+      <c r="G42" t="n">
+        <v>24</v>
+      </c>
+      <c r="H42" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1500,6 +2000,18 @@
       <c r="D43" t="n">
         <v>15.78572972972973</v>
       </c>
+      <c r="E43" t="n">
+        <v>824</v>
+      </c>
+      <c r="F43" t="n">
+        <v>296</v>
+      </c>
+      <c r="G43" t="n">
+        <v>45</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1520,12 +2032,23 @@
       <c r="D44" t="n">
         <v>14.20465671641791</v>
       </c>
+      <c r="E44" t="n">
+        <v>801</v>
+      </c>
+      <c r="F44" t="n">
+        <v>134</v>
+      </c>
+      <c r="G44" t="n">
+        <v>36</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Corrected text:
-The scientific process aggregates a large number of scientific results. A common scientific consensus on numerical values is presented across scientific papers and collaborative systems like wikis may easily aggregate textual values from multiple sources. However, they are far limited in their ability to apply the numerical analysis required. For example, meta-analysis researchers have discussed the advantages and disadvantages of tools for conducting systematic reviews like "paper and pencil," spreadsheets, RevMan, web-based specialized applications, etc. In 2009, they concluded that "no single data extraction method is best for all systematic reviews circumstances." For example, RevMan from the Archie Cochrane Library provides an elaborate system for keeping track of and analyzing textual and numerical data for meta-analyses. The system could import information from electronic databases or original meta-analyses, Microsoft Excel spreadsheets, and later distribute them to public websites. Compared to an ordinary spreadsheet, a wiki solution provides data entry provenance, collaborative data entry that can be immediately updated and shared in folders, and cloud-based storage systems that would help collaboration. Spreadsheets yield provenance, but online services like Google Docs may lack meta-analytic plotting facilities found in web-based specialized applications for systematic reviews, which may have a high setup cost. Previously, it was explored a simple online meta-analysis system or a "fielded wiki" in connection with personality genetics specifically implemented for scientific areas. The web service lacks generality for types of meta-analytic data, and furthermore, the system relied on PubMed and Brede Wiki to represent bibliographic information. Following Ward Cunningham's quote, "It's the simplest thing that could possibly work," a present simple system allows for mass meta-analysis of numerical data presented in comma-separated values (CSV), a standard MediaWiki-based wiki. Brede Wiki's URL is http://neuro.imm.dtu.dk/wiki.</t>
+          <t>The scientific process aggregates a large number of scientific results. A common scientific consensus on numerical values is presented across scientific papers and collaborative systems like wikis may easily aggregate textual values from multiple sources. However, they are far limited in their ability to apply the numerical analysis required. For example, meta-analysis researchers have discussed the advantages and disadvantages of tools for conducting systematic reviews like "paper and pencil," spreadsheets, RevMan, web-based specialized applications, etc. In 2009, they concluded that "no single data extraction method is best for all systematic reviews circumstances." For example, RevMan from the Archie Cochrane Library provides an elaborate system for keeping track of and analyzing textual and numerical data for meta-analyses. The system could import information from electronic databases or original meta-analyses, Microsoft Excel spreadsheets, and later distribute them to public websites. Compared to an ordinary spreadsheet, a wiki solution provides data entry provenance, collaborative data entry that can be immediately updated and shared in folders, and cloud-based storage systems that would help collaboration. Spreadsheets yield provenance, but online services like Google Docs may lack meta-analytic plotting facilities found in web-based specialized applications for systematic reviews, which may have a high setup cost. Previously, it was explored a simple online meta-analysis system or a "fielded wiki" in connection with personality genetics specifically implemented for scientific areas. The web service lacks generality for types of meta-analytic data, and furthermore, the system relied on PubMed and Brede Wiki to represent bibliographic information. Following Ward Cunningham's quote, "It's the simplest thing that could possibly work," a present simple system allows for mass meta-analysis of numerical data presented in comma-separated values (CSV), a standard MediaWiki-based wiki. Brede Wiki's URL is http://neuro.imm.dtu.dk/wiki.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1534,10 +2057,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16.14571665285833</v>
+        <v>16.11132665832291</v>
       </c>
       <c r="D45" t="n">
         <v>10.55831775700935</v>
+      </c>
+      <c r="E45" t="n">
+        <v>282</v>
+      </c>
+      <c r="F45" t="n">
+        <v>107</v>
+      </c>
+      <c r="G45" t="n">
+        <v>17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1564,6 +2099,18 @@
       <c r="D46" t="n">
         <v>14.15255434782609</v>
       </c>
+      <c r="E46" t="n">
+        <v>539</v>
+      </c>
+      <c r="F46" t="n">
+        <v>384</v>
+      </c>
+      <c r="G46" t="n">
+        <v>29</v>
+      </c>
+      <c r="H46" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1582,6 +2129,18 @@
       </c>
       <c r="D47" t="n">
         <v>14.97058823529412</v>
+      </c>
+      <c r="E47" t="n">
+        <v>804</v>
+      </c>
+      <c r="F47" t="n">
+        <v>255</v>
+      </c>
+      <c r="G47" t="n">
+        <v>44</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1610,6 +2169,18 @@
       <c r="D48" t="n">
         <v>15.11924789410349</v>
       </c>
+      <c r="E48" t="n">
+        <v>530</v>
+      </c>
+      <c r="F48" t="n">
+        <v>277</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26</v>
+      </c>
+      <c r="H48" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1636,6 +2207,18 @@
       <c r="D49" t="n">
         <v>13.63261802575107</v>
       </c>
+      <c r="E49" t="n">
+        <v>461</v>
+      </c>
+      <c r="F49" t="n">
+        <v>233</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17</v>
+      </c>
+      <c r="H49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1663,6 +2246,18 @@
       <c r="D50" t="n">
         <v>16.29355439791625</v>
       </c>
+      <c r="E50" t="n">
+        <v>572</v>
+      </c>
+      <c r="F50" t="n">
+        <v>434</v>
+      </c>
+      <c r="G50" t="n">
+        <v>24</v>
+      </c>
+      <c r="H50" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1686,6 +2281,18 @@
       </c>
       <c r="D51" t="n">
         <v>10.88273933102653</v>
+      </c>
+      <c r="E51" t="n">
+        <v>742</v>
+      </c>
+      <c r="F51" t="n">
+        <v>289</v>
+      </c>
+      <c r="G51" t="n">
+        <v>33</v>
+      </c>
+      <c r="H51" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="52">
@@ -1717,6 +2324,18 @@
       <c r="D52" t="n">
         <v>14.61243521184698</v>
       </c>
+      <c r="E52" t="n">
+        <v>743</v>
+      </c>
+      <c r="F52" t="n">
+        <v>286</v>
+      </c>
+      <c r="G52" t="n">
+        <v>39</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1746,6 +2365,18 @@
       <c r="D53" t="n">
         <v>16.30428351901652</v>
       </c>
+      <c r="E53" t="n">
+        <v>517</v>
+      </c>
+      <c r="F53" t="n">
+        <v>274</v>
+      </c>
+      <c r="G53" t="n">
+        <v>22</v>
+      </c>
+      <c r="H53" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1772,6 +2403,18 @@
       </c>
       <c r="D54" t="n">
         <v>14.86361048689139</v>
+      </c>
+      <c r="E54" t="n">
+        <v>604</v>
+      </c>
+      <c r="F54" t="n">
+        <v>267</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24</v>
+      </c>
+      <c r="H54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -1805,6 +2448,18 @@
       <c r="D55" t="n">
         <v>13.37862423568649</v>
       </c>
+      <c r="E55" t="n">
+        <v>840</v>
+      </c>
+      <c r="F55" t="n">
+        <v>257</v>
+      </c>
+      <c r="G55" t="n">
+        <v>34</v>
+      </c>
+      <c r="H55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1823,6 +2478,18 @@
       </c>
       <c r="D56" t="n">
         <v>12.21953007518797</v>
+      </c>
+      <c r="E56" t="n">
+        <v>575</v>
+      </c>
+      <c r="F56" t="n">
+        <v>304</v>
+      </c>
+      <c r="G56" t="n">
+        <v>31</v>
+      </c>
+      <c r="H56" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="57">
@@ -1846,6 +2513,18 @@
       </c>
       <c r="D57" t="n">
         <v>10.30907987866532</v>
+      </c>
+      <c r="E57" t="n">
+        <v>817</v>
+      </c>
+      <c r="F57" t="n">
+        <v>172</v>
+      </c>
+      <c r="G57" t="n">
+        <v>35</v>
+      </c>
+      <c r="H57" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -1882,6 +2561,18 @@
       <c r="D58" t="n">
         <v>12.56131868131868</v>
       </c>
+      <c r="E58" t="n">
+        <v>719</v>
+      </c>
+      <c r="F58" t="n">
+        <v>273</v>
+      </c>
+      <c r="G58" t="n">
+        <v>39</v>
+      </c>
+      <c r="H58" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1901,6 +2592,18 @@
       <c r="D59" t="n">
         <v>7.432347417840379</v>
       </c>
+      <c r="E59" t="n">
+        <v>133</v>
+      </c>
+      <c r="F59" t="n">
+        <v>142</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1919,6 +2622,18 @@
       </c>
       <c r="D60" t="n">
         <v>11.61785046728972</v>
+      </c>
+      <c r="E60" t="n">
+        <v>519</v>
+      </c>
+      <c r="F60" t="n">
+        <v>214</v>
+      </c>
+      <c r="G60" t="n">
+        <v>29</v>
+      </c>
+      <c r="H60" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -1951,6 +2666,18 @@
       <c r="D61" t="n">
         <v>9.752352150537636</v>
       </c>
+      <c r="E61" t="n">
+        <v>768</v>
+      </c>
+      <c r="F61" t="n">
+        <v>186</v>
+      </c>
+      <c r="G61" t="n">
+        <v>101</v>
+      </c>
+      <c r="H61" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1970,6 +2697,18 @@
       <c r="D62" t="n">
         <v>6.79666666666667</v>
       </c>
+      <c r="E62" t="n">
+        <v>47</v>
+      </c>
+      <c r="F62" t="n">
+        <v>30</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1989,6 +2728,18 @@
       <c r="D63" t="n">
         <v>8.684878048780487</v>
       </c>
+      <c r="E63" t="n">
+        <v>769</v>
+      </c>
+      <c r="F63" t="n">
+        <v>164</v>
+      </c>
+      <c r="G63" t="n">
+        <v>52</v>
+      </c>
+      <c r="H63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2008,6 +2759,18 @@
       <c r="D64" t="n">
         <v>13.63400832177532</v>
       </c>
+      <c r="E64" t="n">
+        <v>599</v>
+      </c>
+      <c r="F64" t="n">
+        <v>206</v>
+      </c>
+      <c r="G64" t="n">
+        <v>26</v>
+      </c>
+      <c r="H64" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2026,6 +2789,18 @@
       </c>
       <c r="D65" t="n">
         <v>15.41622035858878</v>
+      </c>
+      <c r="E65" t="n">
+        <v>462</v>
+      </c>
+      <c r="F65" t="n">
+        <v>247</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20</v>
+      </c>
+      <c r="H65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -2051,6 +2826,18 @@
       </c>
       <c r="D66" t="n">
         <v>12.18514563106796</v>
+      </c>
+      <c r="E66" t="n">
+        <v>807</v>
+      </c>
+      <c r="F66" t="n">
+        <v>206</v>
+      </c>
+      <c r="G66" t="n">
+        <v>56</v>
+      </c>
+      <c r="H66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67">
@@ -2080,6 +2867,18 @@
       <c r="D67" t="n">
         <v>13.90579467680609</v>
       </c>
+      <c r="E67" t="n">
+        <v>838</v>
+      </c>
+      <c r="F67" t="n">
+        <v>263</v>
+      </c>
+      <c r="G67" t="n">
+        <v>44</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2098,6 +2897,18 @@
       </c>
       <c r="D68" t="n">
         <v>8.168066037735851</v>
+      </c>
+      <c r="E68" t="n">
+        <v>131</v>
+      </c>
+      <c r="F68" t="n">
+        <v>106</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -2133,6 +2944,18 @@
       <c r="D69" t="n">
         <v>15.18717501815541</v>
       </c>
+      <c r="E69" t="n">
+        <v>796</v>
+      </c>
+      <c r="F69" t="n">
+        <v>243</v>
+      </c>
+      <c r="G69" t="n">
+        <v>47</v>
+      </c>
+      <c r="H69" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2161,6 +2984,18 @@
       <c r="D70" t="n">
         <v>12.27942629482072</v>
       </c>
+      <c r="E70" t="n">
+        <v>808</v>
+      </c>
+      <c r="F70" t="n">
+        <v>251</v>
+      </c>
+      <c r="G70" t="n">
+        <v>39</v>
+      </c>
+      <c r="H70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2187,6 +3022,18 @@
       <c r="D71" t="n">
         <v>11.99928350287484</v>
       </c>
+      <c r="E71" t="n">
+        <v>591</v>
+      </c>
+      <c r="F71" t="n">
+        <v>323</v>
+      </c>
+      <c r="G71" t="n">
+        <v>30</v>
+      </c>
+      <c r="H71" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2209,6 +3056,18 @@
       </c>
       <c r="D72" t="n">
         <v>10.70664294478528</v>
+      </c>
+      <c r="E72" t="n">
+        <v>587</v>
+      </c>
+      <c r="F72" t="n">
+        <v>326</v>
+      </c>
+      <c r="G72" t="n">
+        <v>39</v>
+      </c>
+      <c r="H72" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
@@ -2236,6 +3095,18 @@
       <c r="D73" t="n">
         <v>12.94962006079027</v>
       </c>
+      <c r="E73" t="n">
+        <v>730</v>
+      </c>
+      <c r="F73" t="n">
+        <v>235</v>
+      </c>
+      <c r="G73" t="n">
+        <v>41</v>
+      </c>
+      <c r="H73" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2258,6 +3129,18 @@
       </c>
       <c r="D74" t="n">
         <v>13.48887179487179</v>
+      </c>
+      <c r="E74" t="n">
+        <v>330</v>
+      </c>
+      <c r="F74" t="n">
+        <v>156</v>
+      </c>
+      <c r="G74" t="n">
+        <v>15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -2284,6 +3167,18 @@
       <c r="D75" t="n">
         <v>9.024706959706961</v>
       </c>
+      <c r="E75" t="n">
+        <v>427</v>
+      </c>
+      <c r="F75" t="n">
+        <v>195</v>
+      </c>
+      <c r="G75" t="n">
+        <v>24</v>
+      </c>
+      <c r="H75" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2302,6 +3197,18 @@
       </c>
       <c r="D76" t="n">
         <v>14.69380487804878</v>
+      </c>
+      <c r="E76" t="n">
+        <v>700</v>
+      </c>
+      <c r="F76" t="n">
+        <v>246</v>
+      </c>
+      <c r="G76" t="n">
+        <v>32</v>
+      </c>
+      <c r="H76" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="77">
@@ -2330,6 +3237,18 @@
       </c>
       <c r="D77" t="n">
         <v>14.00578007518797</v>
+      </c>
+      <c r="E77" t="n">
+        <v>614</v>
+      </c>
+      <c r="F77" t="n">
+        <v>266</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25</v>
+      </c>
+      <c r="H77" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -2364,6 +3283,18 @@
       <c r="D78" t="n">
         <v>11.55924651810585</v>
       </c>
+      <c r="E78" t="n">
+        <v>826</v>
+      </c>
+      <c r="F78" t="n">
+        <v>359</v>
+      </c>
+      <c r="G78" t="n">
+        <v>45</v>
+      </c>
+      <c r="H78" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2382,6 +3313,18 @@
       </c>
       <c r="D79" t="n">
         <v>15.15990909090909</v>
+      </c>
+      <c r="E79" t="n">
+        <v>885</v>
+      </c>
+      <c r="F79" t="n">
+        <v>200</v>
+      </c>
+      <c r="G79" t="n">
+        <v>38</v>
+      </c>
+      <c r="H79" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="80">
@@ -2408,6 +3351,18 @@
       <c r="D80" t="n">
         <v>12.13081944444444</v>
       </c>
+      <c r="E80" t="n">
+        <v>373</v>
+      </c>
+      <c r="F80" t="n">
+        <v>225</v>
+      </c>
+      <c r="G80" t="n">
+        <v>25</v>
+      </c>
+      <c r="H80" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2431,6 +3386,18 @@
       <c r="D81" t="n">
         <v>12.63633195307109</v>
       </c>
+      <c r="E81" t="n">
+        <v>642</v>
+      </c>
+      <c r="F81" t="n">
+        <v>207</v>
+      </c>
+      <c r="G81" t="n">
+        <v>23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2453,6 +3420,18 @@
       <c r="D82" t="n">
         <v>13.64792207792208</v>
       </c>
+      <c r="E82" t="n">
+        <v>517</v>
+      </c>
+      <c r="F82" t="n">
+        <v>140</v>
+      </c>
+      <c r="G82" t="n">
+        <v>23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2476,6 +3455,18 @@
       </c>
       <c r="D83" t="n">
         <v>10.42274725274725</v>
+      </c>
+      <c r="E83" t="n">
+        <v>244</v>
+      </c>
+      <c r="F83" t="n">
+        <v>182</v>
+      </c>
+      <c r="G83" t="n">
+        <v>15</v>
+      </c>
+      <c r="H83" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -2505,6 +3496,18 @@
       <c r="D84" t="n">
         <v>8.596070866141734</v>
       </c>
+      <c r="E84" t="n">
+        <v>800</v>
+      </c>
+      <c r="F84" t="n">
+        <v>127</v>
+      </c>
+      <c r="G84" t="n">
+        <v>58</v>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2530,6 +3533,18 @@
       </c>
       <c r="D85" t="n">
         <v>11.7078947368421</v>
+      </c>
+      <c r="E85" t="n">
+        <v>753</v>
+      </c>
+      <c r="F85" t="n">
+        <v>114</v>
+      </c>
+      <c r="G85" t="n">
+        <v>29</v>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2561,6 +3576,18 @@
       <c r="D86" t="n">
         <v>13.36496240601504</v>
       </c>
+      <c r="E86" t="n">
+        <v>620</v>
+      </c>
+      <c r="F86" t="n">
+        <v>190</v>
+      </c>
+      <c r="G86" t="n">
+        <v>38</v>
+      </c>
+      <c r="H86" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2590,6 +3617,18 @@
       <c r="D87" t="n">
         <v>12.38536842105264</v>
       </c>
+      <c r="E87" t="n">
+        <v>786</v>
+      </c>
+      <c r="F87" t="n">
+        <v>152</v>
+      </c>
+      <c r="G87" t="n">
+        <v>36</v>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2615,6 +3654,18 @@
       </c>
       <c r="D88" t="n">
         <v>14.93033333333333</v>
+      </c>
+      <c r="E88" t="n">
+        <v>818</v>
+      </c>
+      <c r="F88" t="n">
+        <v>150</v>
+      </c>
+      <c r="G88" t="n">
+        <v>39</v>
+      </c>
+      <c r="H88" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -2648,6 +3699,18 @@
       <c r="D89" t="n">
         <v>13.19609756097561</v>
       </c>
+      <c r="E89" t="n">
+        <v>640</v>
+      </c>
+      <c r="F89" t="n">
+        <v>164</v>
+      </c>
+      <c r="G89" t="n">
+        <v>29</v>
+      </c>
+      <c r="H89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2677,6 +3740,18 @@
       </c>
       <c r="D90" t="n">
         <v>14.27304269547325</v>
+      </c>
+      <c r="E90" t="n">
+        <v>550</v>
+      </c>
+      <c r="F90" t="n">
+        <v>243</v>
+      </c>
+      <c r="G90" t="n">
+        <v>29</v>
+      </c>
+      <c r="H90" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="91">
@@ -2718,6 +3793,18 @@
       <c r="D91" t="n">
         <v>10.51888781431335</v>
       </c>
+      <c r="E91" t="n">
+        <v>641</v>
+      </c>
+      <c r="F91" t="n">
+        <v>235</v>
+      </c>
+      <c r="G91" t="n">
+        <v>25</v>
+      </c>
+      <c r="H91" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2736,6 +3823,18 @@
       </c>
       <c r="D92" t="n">
         <v>15.42739768339769</v>
+      </c>
+      <c r="E92" t="n">
+        <v>550</v>
+      </c>
+      <c r="F92" t="n">
+        <v>259</v>
+      </c>
+      <c r="G92" t="n">
+        <v>26</v>
+      </c>
+      <c r="H92" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="93">
@@ -2760,6 +3859,18 @@
       </c>
       <c r="D93" t="n">
         <v>13.93943965517242</v>
+      </c>
+      <c r="E93" t="n">
+        <v>672</v>
+      </c>
+      <c r="F93" t="n">
+        <v>145</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -2788,6 +3899,18 @@
       </c>
       <c r="D94" t="n">
         <v>13.47943396226415</v>
+      </c>
+      <c r="E94" t="n">
+        <v>819</v>
+      </c>
+      <c r="F94" t="n">
+        <v>212</v>
+      </c>
+      <c r="G94" t="n">
+        <v>41</v>
+      </c>
+      <c r="H94" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -2820,6 +3943,18 @@
       <c r="D95" t="n">
         <v>12.40233333333333</v>
       </c>
+      <c r="E95" t="n">
+        <v>631</v>
+      </c>
+      <c r="F95" t="n">
+        <v>200</v>
+      </c>
+      <c r="G95" t="n">
+        <v>31</v>
+      </c>
+      <c r="H95" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2841,6 +3976,18 @@
       <c r="D96" t="n">
         <v>10.289</v>
       </c>
+      <c r="E96" t="n">
+        <v>555</v>
+      </c>
+      <c r="F96" t="n">
+        <v>100</v>
+      </c>
+      <c r="G96" t="n">
+        <v>25</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2861,6 +4008,18 @@
       </c>
       <c r="D97" t="n">
         <v>11.3</v>
+      </c>
+      <c r="E97" t="n">
+        <v>526</v>
+      </c>
+      <c r="F97" t="n">
+        <v>96</v>
+      </c>
+      <c r="G97" t="n">
+        <v>31</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2915,6 +4074,18 @@
       <c r="D98" t="n">
         <v>14.42704337899544</v>
       </c>
+      <c r="E98" t="n">
+        <v>768</v>
+      </c>
+      <c r="F98" t="n">
+        <v>219</v>
+      </c>
+      <c r="G98" t="n">
+        <v>39</v>
+      </c>
+      <c r="H98" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2933,6 +4104,18 @@
       </c>
       <c r="D99" t="n">
         <v>12.28333333333333</v>
+      </c>
+      <c r="E99" t="n">
+        <v>673</v>
+      </c>
+      <c r="F99" t="n">
+        <v>288</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29</v>
+      </c>
+      <c r="H99" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -2961,6 +4144,18 @@
       <c r="D100" t="n">
         <v>16.39821804943476</v>
       </c>
+      <c r="E100" t="n">
+        <v>821</v>
+      </c>
+      <c r="F100" t="n">
+        <v>307</v>
+      </c>
+      <c r="G100" t="n">
+        <v>53</v>
+      </c>
+      <c r="H100" t="n">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
